--- a/YsProject/Excels/ProjectTemplate.xlsx
+++ b/YsProject/Excels/ProjectTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\YsProject\YsProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B033E40-91D3-4D71-AFDC-EF07B7B32920}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9E2FD-790C-47B5-AA0F-7DF579056F18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="2" r:id="rId1"/>
@@ -943,57 +943,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>项目期间(开始)</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>项目期间(终了)</t>
-    </r>
+    <t>项目期间(开始)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>项目期间(终了)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1590,7 +1544,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>

--- a/YsProject/Excels/ProjectTemplate.xlsx
+++ b/YsProject/Excels/ProjectTemplate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GitHub\YsProject\YsProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\YsProject\YsProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9E2FD-790C-47B5-AA0F-7DF579056F18}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2310" windowWidth="17280" windowHeight="8970" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="2" r:id="rId1"/>
@@ -28,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{17A69EA6-8FB8-4685-B2BF-13375715E4B5}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,12 +53,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{4DB39306-23FF-48FC-BE33-1D240FDECB69}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{089F491C-26AF-4029-B785-AF17B8A32481}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2D309720-8371-402A-AAEA-DD3908CBC485}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{EC84AB4E-3364-4094-A35D-483EE83EF898}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,12 +126,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7C5DF2C5-6298-4E20-8646-7E1E29FC07F0}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F0618D34-CDB2-4CB9-B5F7-02F7C7816575}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,12 +166,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Yu</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{2CD8C344-630B-4341-89A9-8D5B2BCD669C}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,623 +269,680 @@
   </si>
   <si>
     <r>
-      <t>用</t>
+      <t>密</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>户</t>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>组ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>机能名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>机能组</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>纳品日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3719020009</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Delphy</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020/1/1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020/12/31</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>黄哥</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>史斌</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锦</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>张少玲</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>黄1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>黄2</t>
+  </si>
+  <si>
+    <t>黄3</t>
+  </si>
+  <si>
+    <t>黄4</t>
+  </si>
+  <si>
+    <t>黄5</t>
+  </si>
+  <si>
+    <t>黄6</t>
+  </si>
+  <si>
+    <t>黄7</t>
+  </si>
+  <si>
+    <t>黄8</t>
+  </si>
+  <si>
+    <t>黄9</t>
+  </si>
+  <si>
+    <t>期间(开始)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>期间(终了)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>139001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>开发一组</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>开发二组</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>K00</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CD01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CD02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UT01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UT02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>测试一组</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>测试二组</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>139003</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>139013</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顾悦</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顾1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顾2</t>
+  </si>
+  <si>
+    <t>顾3</t>
+  </si>
+  <si>
+    <t>顾4</t>
+  </si>
+  <si>
+    <t>顾5</t>
+  </si>
+  <si>
+    <t>139020</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Batch</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>业务机能1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>业务机能2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Fun001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Fun002</t>
+  </si>
+  <si>
+    <t>Fun003</t>
+  </si>
+  <si>
+    <t>Fun004</t>
+  </si>
+  <si>
+    <t>Fun005</t>
+  </si>
+  <si>
+    <t>Fun006</t>
+  </si>
+  <si>
+    <t>Fun007</t>
+  </si>
+  <si>
+    <t>Fun008</t>
+  </si>
+  <si>
+    <t>Fun009</t>
+  </si>
+  <si>
+    <t>Fun010</t>
+  </si>
+  <si>
+    <t>Fun011</t>
+  </si>
+  <si>
+    <t>Fun012</t>
+  </si>
+  <si>
+    <t>Fun013</t>
+  </si>
+  <si>
+    <t>Fun014</t>
+  </si>
+  <si>
+    <t>Fun015</t>
+  </si>
+  <si>
+    <t>Fun016</t>
+  </si>
+  <si>
+    <t>Fun017</t>
+  </si>
+  <si>
+    <t>Fun018</t>
+  </si>
+  <si>
+    <t>Fun019</t>
+  </si>
+  <si>
+    <t>Fun020</t>
+  </si>
+  <si>
+    <t>Fun021</t>
+  </si>
+  <si>
+    <t>Fun022</t>
+  </si>
+  <si>
+    <t>Fun023</t>
+  </si>
+  <si>
+    <t>Fun024</t>
+  </si>
+  <si>
+    <t>机能1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>机能2</t>
+  </si>
+  <si>
+    <t>机能3</t>
+  </si>
+  <si>
+    <t>机能4</t>
+  </si>
+  <si>
+    <t>机能5</t>
+  </si>
+  <si>
+    <t>机能6</t>
+  </si>
+  <si>
+    <t>机能7</t>
+  </si>
+  <si>
+    <t>机能8</t>
+  </si>
+  <si>
+    <t>机能9</t>
+  </si>
+  <si>
+    <t>机能10</t>
+  </si>
+  <si>
+    <t>机能11</t>
+  </si>
+  <si>
+    <t>机能12</t>
+  </si>
+  <si>
+    <t>机能13</t>
+  </si>
+  <si>
+    <t>机能14</t>
+  </si>
+  <si>
+    <t>机能15</t>
+  </si>
+  <si>
+    <t>机能16</t>
+  </si>
+  <si>
+    <t>机能17</t>
+  </si>
+  <si>
+    <t>机能18</t>
+  </si>
+  <si>
+    <t>机能19</t>
+  </si>
+  <si>
+    <t>机能20</t>
+  </si>
+  <si>
+    <t>机能21</t>
+  </si>
+  <si>
+    <t>机能22</t>
+  </si>
+  <si>
+    <t>机能23</t>
+  </si>
+  <si>
+    <t>机能24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>密</t>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目ID</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>项目期间(开始)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>项目期间(终了)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>码</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>IP</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>组ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>员工号</t>
-  </si>
-  <si>
-    <t>组号</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
+      <t>项</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>组</t>
+      <t>目名</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>名</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>机能名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>机能ID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>机能组</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>区分</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>纳品日</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3719020009</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Delphy</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2020/1/1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2020/12/31</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>黄哥</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>史斌</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>黄</t>
-    </r>
-    <r>
-      <rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>锦</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>张少玲</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>管理</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
-      <t>张</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>黄1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>黄2</t>
-  </si>
-  <si>
-    <t>黄3</t>
-  </si>
-  <si>
-    <t>黄4</t>
-  </si>
-  <si>
-    <t>黄5</t>
-  </si>
-  <si>
-    <t>黄6</t>
-  </si>
-  <si>
-    <t>黄7</t>
-  </si>
-  <si>
-    <t>黄8</t>
-  </si>
-  <si>
-    <t>黄9</t>
-  </si>
-  <si>
-    <t>期间(开始)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>期间(终了)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>139001</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>开发一组</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>开发二组</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>K00</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CD01</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>CD02</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UT01</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>UT02</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>测试一组</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>测试二组</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>139003</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>139013</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>顾悦</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>顾1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>顾2</t>
-  </si>
-  <si>
-    <t>顾3</t>
-  </si>
-  <si>
-    <t>顾4</t>
-  </si>
-  <si>
-    <t>顾5</t>
-  </si>
-  <si>
-    <t>139020</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>API</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Batch</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>画面</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>业务机能1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>业务机能2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Fun001</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Fun002</t>
-  </si>
-  <si>
-    <t>Fun003</t>
-  </si>
-  <si>
-    <t>Fun004</t>
-  </si>
-  <si>
-    <t>Fun005</t>
-  </si>
-  <si>
-    <t>Fun006</t>
-  </si>
-  <si>
-    <t>Fun007</t>
-  </si>
-  <si>
-    <t>Fun008</t>
-  </si>
-  <si>
-    <t>Fun009</t>
-  </si>
-  <si>
-    <t>Fun010</t>
-  </si>
-  <si>
-    <t>Fun011</t>
-  </si>
-  <si>
-    <t>Fun012</t>
-  </si>
-  <si>
-    <t>Fun013</t>
-  </si>
-  <si>
-    <t>Fun014</t>
-  </si>
-  <si>
-    <t>Fun015</t>
-  </si>
-  <si>
-    <t>Fun016</t>
-  </si>
-  <si>
-    <t>Fun017</t>
-  </si>
-  <si>
-    <t>Fun018</t>
-  </si>
-  <si>
-    <t>Fun019</t>
-  </si>
-  <si>
-    <t>Fun020</t>
-  </si>
-  <si>
-    <t>Fun021</t>
-  </si>
-  <si>
-    <t>Fun022</t>
-  </si>
-  <si>
-    <t>Fun023</t>
-  </si>
-  <si>
-    <t>Fun024</t>
-  </si>
-  <si>
-    <t>机能1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>机能2</t>
-  </si>
-  <si>
-    <t>机能3</t>
-  </si>
-  <si>
-    <t>机能4</t>
-  </si>
-  <si>
-    <t>机能5</t>
-  </si>
-  <si>
-    <t>机能6</t>
-  </si>
-  <si>
-    <t>机能7</t>
-  </si>
-  <si>
-    <t>机能8</t>
-  </si>
-  <si>
-    <t>机能9</t>
-  </si>
-  <si>
-    <t>机能10</t>
-  </si>
-  <si>
-    <t>机能11</t>
-  </si>
-  <si>
-    <t>机能12</t>
-  </si>
-  <si>
-    <t>机能13</t>
-  </si>
-  <si>
-    <t>机能14</t>
-  </si>
-  <si>
-    <t>机能15</t>
-  </si>
-  <si>
-    <t>机能16</t>
-  </si>
-  <si>
-    <t>机能17</t>
-  </si>
-  <si>
-    <t>机能18</t>
-  </si>
-  <si>
-    <t>机能19</t>
-  </si>
-  <si>
-    <t>机能20</t>
-  </si>
-  <si>
-    <t>机能21</t>
-  </si>
-  <si>
-    <t>机能22</t>
-  </si>
-  <si>
-    <t>机能23</t>
-  </si>
-  <si>
-    <t>机能24</t>
+      <t>名</t>
+    </r>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -894,9 +950,9 @@
         <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -906,12 +962,24 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项目ID</t>
+      <t>员</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工号</t>
     </r>
     <phoneticPr fontId="3"/>
   </si>
@@ -921,9 +989,9 @@
         <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
-        <charset val="134"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>*</t>
@@ -933,33 +1001,103 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>项目名</t>
-    </r>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>项目期间(开始)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>项目期间(终了)</t>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>机能ID</t>
+    </r>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -967,7 +1105,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -976,14 +1114,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -992,7 +1130,7 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1000,7 +1138,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1008,7 +1146,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1025,9 +1163,18 @@
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1206,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1258,9 +1405,12 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1537,54 +1687,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -1601,82 +1751,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>31</v>
+    <row r="1" spans="1:9">
+      <c r="A1" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="15">
         <v>139002</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
@@ -1684,18 +1834,18 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
@@ -1703,18 +1853,18 @@
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="15">
         <v>139004</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
@@ -1726,12 +1876,12 @@
       <c r="H5" s="10"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="15">
         <v>139005</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
@@ -1743,12 +1893,12 @@
       <c r="H6" s="10"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="15">
         <v>139006</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
@@ -1760,12 +1910,12 @@
       <c r="H7" s="10"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="15">
         <v>139007</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
@@ -1777,12 +1927,12 @@
       <c r="H8" s="10"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="15">
         <v>139008</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
@@ -1794,12 +1944,12 @@
       <c r="H9" s="10"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="15">
         <v>139009</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
@@ -1811,12 +1961,12 @@
       <c r="H10" s="10"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="15">
         <v>139010</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
@@ -1828,12 +1978,12 @@
       <c r="H11" s="10"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="15">
         <v>139011</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
@@ -1845,12 +1995,12 @@
       <c r="H12" s="10"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="15">
         <v>139012</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
@@ -1862,12 +2012,12 @@
       <c r="H13" s="10"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
@@ -1875,18 +2025,18 @@
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13.5">
       <c r="A15" s="15">
         <v>139014</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10" t="s">
@@ -1898,12 +2048,12 @@
       <c r="H15" s="10"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13.5">
       <c r="A16" s="15">
         <v>139015</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
@@ -1915,12 +2065,12 @@
       <c r="H16" s="10"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13.5">
       <c r="A17" s="15">
         <v>139016</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
@@ -1932,12 +2082,12 @@
       <c r="H17" s="10"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13.5">
       <c r="A18" s="15">
         <v>139017</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
@@ -1949,12 +2099,12 @@
       <c r="H18" s="10"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13.5">
       <c r="A19" s="15">
         <v>139018</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="s">
@@ -1966,12 +2116,12 @@
       <c r="H19" s="10"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13.5">
       <c r="A20" s="15">
         <v>139019</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
@@ -1983,12 +2133,12 @@
       <c r="H20" s="10"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
@@ -1996,18 +2146,18 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="15">
         <v>139021</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
@@ -2019,12 +2169,12 @@
       <c r="H22" s="10"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="15">
         <v>139022</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
@@ -2036,12 +2186,12 @@
       <c r="H23" s="10"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="15">
         <v>139023</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
@@ -2053,12 +2203,12 @@
       <c r="H24" s="10"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="15">
         <v>139024</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
@@ -2070,12 +2220,12 @@
       <c r="H25" s="10"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="15">
         <v>139025</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
@@ -2100,107 +2250,107 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="2" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>33</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2220,418 +2370,418 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>96</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="7"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="7"/>

--- a/YsProject/Excels/ProjectTemplate.xlsx
+++ b/YsProject/Excels/ProjectTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="2310" windowWidth="17280" windowHeight="8970" activeTab="3"/>
+    <workbookView xWindow="2310" yWindow="2310" windowWidth="17280" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="2" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="151">
   <si>
     <t>備考</t>
   </si>
@@ -1086,6 +1086,36 @@
       </rPr>
       <t>机能ID</t>
     </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020/6/1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2020/12/13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>139047</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>兪 文</t>
+    <rPh sb="0" eb="1">
+      <t>ユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>172.21.4.158</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1755,10 +1785,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
@@ -1817,8 +1847,12 @@
       <c r="F2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9">
@@ -1836,8 +1870,12 @@
       <c r="F3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
@@ -1855,8 +1893,12 @@
       <c r="F4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9">
@@ -1872,8 +1914,12 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9">
@@ -1889,8 +1935,12 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
@@ -1906,8 +1956,12 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9">
@@ -1923,8 +1977,12 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9">
@@ -1940,8 +1998,12 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9">
@@ -1957,8 +2019,12 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
@@ -1974,8 +2040,12 @@
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9">
@@ -1991,8 +2061,12 @@
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9">
@@ -2008,8 +2082,12 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9">
@@ -2027,8 +2105,12 @@
       <c r="F14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="13.5">
@@ -2044,8 +2126,12 @@
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="13.5">
@@ -2061,8 +2147,12 @@
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="13.5">
@@ -2078,8 +2168,12 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="13.5">
@@ -2095,8 +2189,12 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" ht="13.5">
@@ -2112,8 +2210,12 @@
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" ht="13.5">
@@ -2129,8 +2231,12 @@
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
@@ -2148,8 +2254,12 @@
       <c r="F21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
@@ -2165,8 +2275,12 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
@@ -2182,8 +2296,12 @@
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
@@ -2199,8 +2317,12 @@
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
@@ -2216,8 +2338,12 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
@@ -2233,9 +2359,36 @@
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -2373,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
